--- a/Airframes/A10-C/checklists/amplified/checklists-amplified.xlsx
+++ b/Airframes/A10-C/checklists/amplified/checklists-amplified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walter_mundstock\Google Drive\DCS World\Aircraft Specific Info\A-10C II - Tank Killer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walter_mundstock\Google Drive\DCS World\Aircraft Specific Info\A-10C II - Tank Killer\amplified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283B06E3-3D7D-4BC9-AD01-0DADC7D6AA02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19D9E5-52D6-4239-83CE-10D5D37D2BA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{72EB3997-0F77-9641-976B-4C1465DB7912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{72EB3997-0F77-9641-976B-4C1465DB7912}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="17" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="784">
   <si>
     <t>t</t>
   </si>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>CENTER POSITION</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>L14</t>
@@ -3387,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3417,7 +3414,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
@@ -3428,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3442,7 +3439,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -3453,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" t="s">
         <v>569</v>
-      </c>
-      <c r="C7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,10 +3461,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" t="s">
         <v>571</v>
-      </c>
-      <c r="C8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" t="s">
         <v>573</v>
-      </c>
-      <c r="C9" t="s">
-        <v>574</v>
       </c>
       <c r="D9" t="s">
         <v>93</v>
@@ -3489,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" t="s">
         <v>575</v>
-      </c>
-      <c r="C10" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3500,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3536,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
@@ -3558,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
         <v>580</v>
-      </c>
-      <c r="C3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,10 +3566,10 @@
         <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
         <v>207</v>
@@ -3594,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C6" t="s">
         <v>207</v>
@@ -3605,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C7" t="s">
         <v>207</v>
@@ -3619,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -3633,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C9" t="s">
         <v>207</v>
@@ -3647,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C10" t="s">
         <v>207</v>
@@ -3661,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
         <v>93</v>
@@ -3675,10 +3672,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C15" s="12">
         <v>0.4</v>
@@ -3716,7 +3713,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
@@ -3730,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
         <v>207</v>
@@ -3741,10 +3738,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C18" t="s">
         <v>598</v>
-      </c>
-      <c r="C18" t="s">
-        <v>599</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
@@ -3755,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C20" t="s">
         <v>207</v>
@@ -3774,10 +3771,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,10 +3782,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,10 +3793,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,10 +3804,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
+        <v>603</v>
+      </c>
+      <c r="C24" t="s">
         <v>604</v>
-      </c>
-      <c r="C24" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464563FE-41E2-AF4D-950F-02A53F62F497}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3845,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>207</v>
@@ -3875,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
         <v>207</v>
@@ -3886,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
         <v>207</v>
@@ -3897,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
         <v>207</v>
@@ -3908,10 +3905,10 @@
         <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
@@ -3941,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" t="s">
         <v>162</v>
@@ -3952,10 +3949,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
@@ -3966,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
@@ -3980,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -3994,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
@@ -4008,13 +4005,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,10 +4019,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4033,10 +4030,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
         <v>96</v>
@@ -4050,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C18" t="s">
         <v>622</v>
-      </c>
-      <c r="C18" t="s">
-        <v>623</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4064,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -4078,10 +4075,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
@@ -4092,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -4106,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
@@ -4120,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
@@ -4134,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -4145,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>629</v>
+      </c>
+      <c r="C25" t="s">
         <v>630</v>
-      </c>
-      <c r="C25" t="s">
-        <v>631</v>
       </c>
       <c r="D25" t="s">
         <v>87</v>
@@ -4159,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
@@ -4173,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D27" t="s">
         <v>87</v>
@@ -4195,10 +4192,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C29" t="s">
         <v>635</v>
-      </c>
-      <c r="C29" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,13 +4203,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" t="s">
         <v>637</v>
       </c>
-      <c r="C30" t="s">
-        <v>638</v>
-      </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4220,10 +4217,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -4234,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C32" t="s">
         <v>84</v>
@@ -4248,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C33" t="s">
         <v>162</v>
@@ -4262,7 +4259,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C34" t="s">
         <v>162</v>
@@ -4273,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C35" t="s">
         <v>162</v>
@@ -4284,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
@@ -4295,10 +4292,10 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,10 +4303,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
@@ -4328,7 +4325,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
@@ -4339,7 +4336,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -4350,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
@@ -4367,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D43" t="s">
         <v>123</v>
@@ -4400,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -4414,10 +4411,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>125</v>
@@ -4439,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -4448,10 +4445,10 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -4459,10 +4456,10 @@
         <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -4470,10 +4467,10 @@
         <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C53" t="s">
         <v>126</v>
@@ -4492,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4500,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -4533,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -4544,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -4567,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -4581,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D61" t="s">
         <v>128</v>
@@ -4634,10 +4631,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C3" t="s">
         <v>710</v>
-      </c>
-      <c r="C3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,10 +4642,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" t="s">
         <v>712</v>
-      </c>
-      <c r="C4" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
@@ -4684,7 +4681,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
         <v>117</v>
@@ -4695,10 +4692,10 @@
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4706,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" t="s">
         <v>716</v>
-      </c>
-      <c r="C9" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,10 +4714,10 @@
         <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4728,10 +4725,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" t="s">
         <v>719</v>
-      </c>
-      <c r="C11" t="s">
-        <v>720</v>
       </c>
       <c r="D11" t="s">
         <v>93</v>
@@ -4742,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4753,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C13" t="s">
         <v>722</v>
-      </c>
-      <c r="C13" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4772,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
@@ -4783,10 +4780,10 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,10 +4791,10 @@
         <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,10 +4813,10 @@
         <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,10 +4832,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -4849,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -4860,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +4874,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4910,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>162</v>
@@ -4924,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>162</v>
@@ -4935,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
         <v>162</v>
@@ -4949,10 +4946,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
         <v>671</v>
-      </c>
-      <c r="C6" t="s">
-        <v>672</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -4966,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -4991,7 +4988,7 @@
         <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -5002,10 +4999,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
         <v>134</v>
@@ -5016,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -5030,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C12" t="s">
         <v>675</v>
-      </c>
-      <c r="C12" t="s">
-        <v>676</v>
       </c>
       <c r="D12" t="s">
         <v>134</v>
@@ -5044,10 +5041,10 @@
         <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" t="s">
         <v>678</v>
-      </c>
-      <c r="C14" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,10 +5063,10 @@
         <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,10 +5082,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
         <v>93</v>
@@ -5099,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D18" t="s">
         <v>92</v>
@@ -5113,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C19" t="s">
         <v>163</v>
@@ -5127,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -5138,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -5152,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -5166,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C23" t="s">
         <v>207</v>
@@ -5180,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -5194,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C25" t="s">
         <v>207</v>
@@ -5208,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
@@ -5233,7 +5230,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
@@ -5241,10 +5238,10 @@
         <v>165</v>
       </c>
       <c r="B29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -5255,7 +5252,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C32" t="s">
         <v>85</v>
@@ -5282,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
@@ -5301,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C35" t="s">
         <v>140</v>
@@ -5312,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
@@ -5323,7 +5320,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C37" t="s">
         <v>85</v>
@@ -5342,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C39" t="s">
         <v>142</v>
@@ -5356,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C40" t="s">
         <v>143</v>
@@ -5367,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C41" t="s">
         <v>144</v>
@@ -5378,7 +5375,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
@@ -5392,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C43" t="s">
         <v>207</v>
@@ -5403,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C44" t="s">
         <v>207</v>
@@ -5417,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C45" t="s">
         <v>207</v>
@@ -5439,8 +5436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07221A7-71F3-B24E-B86F-1518E643122E}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5473,10 +5470,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" t="s">
         <v>742</v>
-      </c>
-      <c r="C3" t="s">
-        <v>743</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -5487,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
         <v>154</v>
@@ -5501,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5515,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -5529,7 +5526,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -5543,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -5557,7 +5554,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>155</v>
@@ -5571,7 +5568,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C10" t="s">
         <v>155</v>
@@ -5585,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C11" t="s">
         <v>155</v>
@@ -5599,7 +5596,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -5613,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>752</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>96</v>
@@ -5630,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -5644,10 +5641,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5663,10 +5660,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C17" t="s">
         <v>757</v>
-      </c>
-      <c r="C17" t="s">
-        <v>758</v>
       </c>
       <c r="D17" t="s">
         <v>119</v>
@@ -5677,10 +5674,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>758</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>96</v>
@@ -5694,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C19" t="s">
         <v>761</v>
-      </c>
-      <c r="C19" t="s">
-        <v>762</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -5708,10 +5705,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,10 +5716,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>763</v>
+      </c>
+      <c r="C21" t="s">
         <v>764</v>
-      </c>
-      <c r="C21" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,7 +5727,7 @@
         <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
         <v>157</v>
@@ -5749,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C24" t="s">
         <v>159</v>
@@ -5760,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C25" t="s">
         <v>160</v>
@@ -5774,10 +5771,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
@@ -5799,10 +5796,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -5811,7 +5808,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5827,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C30" t="s">
         <v>162</v>
@@ -5841,7 +5838,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C31" t="s">
         <v>162</v>
@@ -5855,7 +5852,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
@@ -5869,7 +5866,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C33" t="s">
         <v>85</v>
@@ -5897,10 +5894,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>776</v>
+      </c>
+      <c r="C35" t="s">
         <v>777</v>
-      </c>
-      <c r="C35" t="s">
-        <v>778</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
@@ -5911,10 +5908,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,37 +5919,46 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
       <c r="B38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
       <c r="B39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
       <c r="B40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +5974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E92B0-7992-404E-B8E0-93FB23944504}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5983,7 +5989,7 @@
         <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -6040,8 +6046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B38F5F-2E83-B845-864D-BB0F6727DDB7}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6057,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -6079,7 +6085,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>205</v>
@@ -6094,7 +6100,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>206</v>
@@ -6107,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>207</v>
@@ -6122,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>85</v>
@@ -6137,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>84</v>
@@ -6152,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>208</v>
@@ -6167,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>209</v>
@@ -6182,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>208</v>
@@ -6197,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>210</v>
@@ -6212,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>84</v>
@@ -6227,7 +6233,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>204</v>
@@ -6240,7 +6246,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>14</v>
@@ -6253,7 +6259,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>211</v>
@@ -6266,7 +6272,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>211</v>
@@ -6279,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -6292,7 +6298,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>14</v>
@@ -6302,16 +6308,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="13"/>
     </row>
@@ -6320,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -6335,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>84</v>
@@ -6350,7 +6356,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>85</v>
@@ -6365,10 +6371,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>19</v>
@@ -6380,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>85</v>
@@ -6395,10 +6401,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>19</v>
@@ -6410,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>84</v>
@@ -6425,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>20</v>
@@ -6440,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>85</v>
@@ -6455,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>210</v>
@@ -6470,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>210</v>
@@ -6485,7 +6491,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>84</v>
@@ -6500,7 +6506,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
@@ -6513,7 +6519,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>24</v>
@@ -6526,10 +6532,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -6539,10 +6545,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -6552,10 +6558,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>134</v>
@@ -6567,10 +6573,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>134</v>
@@ -6582,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>85</v>
@@ -6597,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>85</v>
@@ -6612,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>210</v>
@@ -6627,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>25</v>
@@ -6653,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>114</v>
@@ -6668,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>85</v>
@@ -6683,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>84</v>
@@ -6698,7 +6704,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>162</v>
@@ -6713,7 +6719,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>162</v>
@@ -6728,7 +6734,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>162</v>
@@ -6743,7 +6749,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>85</v>
@@ -6758,10 +6764,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>29</v>
@@ -6773,10 +6779,10 @@
         <v>22</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>29</v>
@@ -6788,7 +6794,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>85</v>
@@ -6801,7 +6807,7 @@
         <v>22</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>85</v>
@@ -6814,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>85</v>
@@ -6827,7 +6833,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>85</v>
@@ -6844,10 +6850,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>30</v>
@@ -6859,13 +6865,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E57" s="13"/>
     </row>
@@ -6874,10 +6880,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>30</v>
@@ -6889,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>211</v>
@@ -6904,13 +6910,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="E60" s="13"/>
     </row>
@@ -6919,10 +6925,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>32</v>
@@ -6934,10 +6940,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>32</v>
@@ -6960,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>84</v>
@@ -6975,10 +6981,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -6988,7 +6994,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>85</v>
@@ -7001,10 +7007,10 @@
         <v>22</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -7014,7 +7020,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>85</v>
@@ -7027,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>207</v>
@@ -7040,7 +7046,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>84</v>
@@ -7055,7 +7061,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>85</v>
@@ -7068,7 +7074,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>85</v>
@@ -7081,7 +7087,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>208</v>
@@ -7096,7 +7102,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
@@ -7109,7 +7115,7 @@
         <v>22</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>85</v>
@@ -7122,7 +7128,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>85</v>
@@ -7135,10 +7141,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -7148,10 +7154,10 @@
         <v>22</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -7161,10 +7167,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>41</v>
@@ -7176,10 +7182,10 @@
         <v>165</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -7189,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>84</v>
@@ -7204,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>85</v>
@@ -7217,7 +7223,7 @@
         <v>22</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>85</v>
@@ -7226,9 +7232,11 @@
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B84" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>85</v>
@@ -7241,7 +7249,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>85</v>
@@ -7254,10 +7262,10 @@
         <v>22</v>
       </c>
       <c r="B86" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -7267,10 +7275,10 @@
         <v>22</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -7280,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>210</v>
@@ -7293,7 +7301,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>207</v>
@@ -7306,10 +7314,10 @@
         <v>22</v>
       </c>
       <c r="B90" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -7319,7 +7327,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>207</v>
@@ -7332,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>208</v>
@@ -7347,7 +7355,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>84</v>
@@ -7362,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>84</v>
@@ -7385,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A207932C-70DE-4149-9466-7329DB1A8EDD}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7402,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -7412,10 +7420,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>34</v>
@@ -7426,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>163</v>
@@ -7438,10 +7446,10 @@
         <v>164</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -7450,10 +7458,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>46</v>
@@ -7464,10 +7472,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
@@ -7478,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>47</v>
@@ -7492,10 +7500,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>17</v>
@@ -7506,7 +7514,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>84</v>
@@ -7520,10 +7528,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>49</v>
@@ -7534,10 +7542,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -7546,10 +7554,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="D12" s="13"/>
     </row>
@@ -7558,10 +7566,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>41</v>
@@ -7584,7 +7592,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -7594,7 +7602,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>21</v>
@@ -7606,10 +7614,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>345</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -7618,10 +7626,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>19</v>
@@ -7632,10 +7640,10 @@
         <v>165</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D19" s="13"/>
     </row>
@@ -7644,10 +7652,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>161</v>
@@ -7658,10 +7666,10 @@
         <v>164</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -7670,10 +7678,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>34</v>
@@ -7684,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>84</v>
@@ -7698,7 +7706,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>79</v>
@@ -7710,7 +7718,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>79</v>
@@ -7722,13 +7730,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,10 +7744,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>9</v>
@@ -7762,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>53</v>
@@ -7791,7 +7799,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>134</v>
@@ -7805,7 +7813,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -7822,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C723494-6ADC-6142-9D38-3A7345C861A5}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7839,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -7861,10 +7869,10 @@
         <v>164</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -7877,7 +7885,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>19</v>
@@ -7892,7 +7900,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -7905,7 +7913,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>88</v>
@@ -7919,10 +7927,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -7932,10 +7940,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -7945,10 +7953,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -7958,10 +7966,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7971,10 +7979,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7984,7 +7992,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -7995,10 +8003,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>88</v>
@@ -8010,10 +8018,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>88</v>
@@ -8025,10 +8033,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>88</v>
@@ -8040,10 +8048,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>88</v>
@@ -8055,10 +8063,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>88</v>
@@ -8070,10 +8078,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>88</v>
@@ -8085,10 +8093,10 @@
         <v>165</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>377</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -8098,10 +8106,10 @@
         <v>164</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -8111,10 +8119,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -8124,10 +8132,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>63</v>
@@ -8139,10 +8147,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>63</v>
@@ -8165,35 +8173,39 @@
         <v>3</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="B26" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E27" s="13"/>
     </row>
@@ -8202,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>85</v>
@@ -8217,10 +8229,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>65</v>
@@ -8247,10 +8259,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -8260,7 +8272,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>163</v>
@@ -8273,7 +8285,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>207</v>
@@ -8286,10 +8298,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>32</v>
@@ -8301,10 +8313,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>36</v>
@@ -8316,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>401</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>402</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>67</v>
@@ -8331,7 +8343,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>68</v>
@@ -8346,10 +8358,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>17</v>
@@ -8361,10 +8373,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>19</v>
@@ -8376,10 +8388,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>19</v>
@@ -8391,10 +8403,10 @@
         <v>164</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -8404,10 +8416,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -8417,7 +8429,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>85</v>
@@ -8432,7 +8444,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -8443,10 +8455,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>93</v>
@@ -8458,10 +8470,10 @@
         <v>22</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -8471,10 +8483,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>69</v>
@@ -8486,10 +8498,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>70</v>
@@ -8501,10 +8513,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -8514,10 +8526,10 @@
         <v>164</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -8527,10 +8539,10 @@
         <v>22</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>422</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -8540,10 +8552,10 @@
         <v>22</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -8553,10 +8565,10 @@
         <v>22</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>424</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>425</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -8566,10 +8578,10 @@
         <v>164</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -8579,10 +8591,10 @@
         <v>22</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -8592,10 +8604,10 @@
         <v>22</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>428</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>429</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -8605,7 +8617,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>85</v>
@@ -8620,10 +8632,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -8633,10 +8645,10 @@
         <v>164</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -8646,10 +8658,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>433</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>69</v>
@@ -8661,10 +8673,10 @@
         <v>164</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -8674,10 +8686,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>436</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>437</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -8687,10 +8699,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>70</v>
@@ -8702,7 +8714,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>85</v>
@@ -8715,10 +8727,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -8728,10 +8740,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>42</v>
@@ -8743,10 +8755,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>444</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>445</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>71</v>
@@ -8769,10 +8781,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>446</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>447</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>71</v>
@@ -8784,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>73</v>
@@ -8799,10 +8811,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>29</v>
@@ -8814,10 +8826,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>29</v>
@@ -8829,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>79</v>
@@ -8844,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>207</v>
@@ -8861,10 +8873,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>452</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -8874,10 +8886,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>96</v>
@@ -8889,10 +8901,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>29</v>
@@ -8904,10 +8916,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>98</v>
@@ -8921,10 +8933,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>43</v>
@@ -8941,7 +8953,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>76</v>
@@ -8953,10 +8965,10 @@
         <v>22</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
@@ -8966,10 +8978,10 @@
         <v>22</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>30</v>
@@ -8981,10 +8993,10 @@
         <v>22</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -8994,10 +9006,10 @@
         <v>22</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -9007,10 +9019,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>469</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>470</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>77</v>
@@ -9022,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>78</v>
@@ -9035,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>82</v>
@@ -9050,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>79</v>
@@ -9065,7 +9077,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>207</v>
@@ -9078,10 +9090,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -9091,7 +9103,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>80</v>
@@ -9106,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>207</v>
@@ -9121,10 +9133,10 @@
         <v>165</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -9134,7 +9146,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>206</v>
@@ -9147,10 +9159,10 @@
         <v>3</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
@@ -9160,7 +9172,7 @@
         <v>22</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -9184,10 +9196,10 @@
         <v>165</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -9197,10 +9209,10 @@
         <v>164</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
@@ -9210,7 +9222,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -9221,7 +9233,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
@@ -9234,10 +9246,10 @@
         <v>22</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -9247,10 +9259,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>12</v>
@@ -9262,7 +9274,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>84</v>
@@ -9277,10 +9289,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>491</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
@@ -9325,7 +9337,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -9335,10 +9347,10 @@
         <v>165</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D3" s="13"/>
     </row>
@@ -9347,10 +9359,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -9359,7 +9371,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>207</v>
@@ -9371,10 +9383,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -9383,10 +9395,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -9395,10 +9407,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>110</v>
@@ -9409,10 +9421,10 @@
         <v>165</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -9421,10 +9433,10 @@
         <v>164</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -9442,7 +9454,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9458,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9474,10 +9486,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -9488,10 +9500,10 @@
         <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,10 +9511,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" t="s">
         <v>503</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -9513,24 +9525,27 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
         <v>505</v>
-      </c>
-      <c r="C6" t="s">
-        <v>506</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
         <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9538,10 +9553,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -9552,7 +9567,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
         <v>207</v>
@@ -9566,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -9580,10 +9595,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -9594,7 +9609,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
         <v>207</v>
@@ -9608,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
         <v>207</v>
@@ -9622,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -9636,10 +9651,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9647,10 +9662,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" t="s">
         <v>516</v>
-      </c>
-      <c r="C16" t="s">
-        <v>517</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -9661,7 +9676,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C17" t="s">
         <v>107</v>
@@ -9672,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C18" t="s">
         <v>207</v>
@@ -9686,10 +9701,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9697,10 +9712,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9708,10 +9723,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" t="s">
         <v>524</v>
-      </c>
-      <c r="C21" t="s">
-        <v>525</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -9722,10 +9737,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" t="s">
         <v>526</v>
-      </c>
-      <c r="C22" t="s">
-        <v>527</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -9744,7 +9759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A19F4F7-57D8-1445-9517-3BDBFD72A091}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -9761,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9777,10 +9792,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -9791,10 +9806,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -9805,10 +9820,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -9819,10 +9834,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -9833,7 +9848,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -9844,10 +9859,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
@@ -9858,10 +9873,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -9872,7 +9887,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
@@ -9894,10 +9909,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9905,10 +9920,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9916,10 +9931,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -9930,10 +9945,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -9944,10 +9959,10 @@
         <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9955,10 +9970,10 @@
         <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -9966,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9974,10 +9989,10 @@
         <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9985,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -9993,7 +10008,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -10025,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10033,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10041,10 +10056,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D3" t="s">
         <v>86</v>
@@ -10055,10 +10070,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D4" t="s">
         <v>86</v>
@@ -10069,10 +10084,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" t="s">
         <v>555</v>
-      </c>
-      <c r="C5" t="s">
-        <v>556</v>
       </c>
       <c r="D5" t="s">
         <v>88</v>
@@ -10083,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6" t="s">
         <v>207</v>
@@ -10094,10 +10109,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" t="s">
         <v>558</v>
-      </c>
-      <c r="C7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10105,10 +10120,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
@@ -10119,10 +10134,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
@@ -10139,10 +10154,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
